--- a/data/trans_orig/P42A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C810E9D4-0E64-4122-9377-7781B240F856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7006F4BC-E768-462B-9DAF-EF8E7DE7EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7B99481D-CCF8-43A0-A342-64F2848D7082}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0C8CB1F-16F3-412D-80E8-2F6A807B18CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="506">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -518,1054 +518,1045 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>10,59%</t>
+    <t>10,54%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>21,81%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>16,99%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>24,16%</t>
+    <t>24,54%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>9,13%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>27,21%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74642C4-F1D9-4963-9AB9-74EF2C0DD5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D75FC-FD8B-4649-8C52-EFA6C2FF9410}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4777,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2920C7-13A2-491E-8D27-A5D102842506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02EBC1-D678-4115-9B78-078BE765A320}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5537,7 +5528,7 @@
         <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5552,7 +5543,7 @@
         <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5571,13 @@
         <v>95567</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -5595,13 +5586,13 @@
         <v>95567</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,10 +5623,10 @@
         <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5647,10 +5638,10 @@
         <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5669,13 @@
         <v>54767</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -5693,13 +5684,13 @@
         <v>54767</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5769,13 @@
         <v>51625</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -5793,13 +5784,13 @@
         <v>51625</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5818,13 @@
         <v>122286</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>114</v>
@@ -5842,13 +5833,13 @@
         <v>122286</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5867,13 @@
         <v>155743</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -5891,13 +5882,13 @@
         <v>155743</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5916,13 @@
         <v>143234</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -5940,13 +5931,13 @@
         <v>143234</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5965,13 @@
         <v>104947</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5989,13 +5980,13 @@
         <v>104947</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6065,13 @@
         <v>17820</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6089,13 +6080,13 @@
         <v>17820</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6114,13 @@
         <v>37838</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6138,13 +6129,13 @@
         <v>37838</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,10 +6166,10 @@
         <v>91</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6190,10 +6181,10 @@
         <v>91</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6212,13 @@
         <v>45396</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6236,13 +6227,13 @@
         <v>45396</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6261,13 @@
         <v>31849</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -6285,13 +6276,13 @@
         <v>31849</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6361,13 @@
         <v>26384</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -6385,13 +6376,13 @@
         <v>26384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,10 +6709,10 @@
         <v>229</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -6733,10 +6724,10 @@
         <v>229</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6755,13 @@
         <v>176160</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -6779,13 +6770,13 @@
         <v>176160</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>176</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6804,13 @@
         <v>121988</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M43" s="7">
         <v>113</v>
@@ -6828,13 +6819,13 @@
         <v>121988</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,10 +6856,10 @@
         <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -6880,10 +6871,10 @@
         <v>143</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,10 +6956,10 @@
         <v>45</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M46" s="7">
         <v>106</v>
@@ -6980,10 +6971,10 @@
         <v>45</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7002,13 @@
         <v>128432</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M47" s="7">
         <v>118</v>
@@ -7026,13 +7017,13 @@
         <v>128432</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7051,13 @@
         <v>205020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M48" s="7">
         <v>187</v>
@@ -7075,13 +7066,13 @@
         <v>205020</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,10 +7103,10 @@
         <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M49" s="7">
         <v>142</v>
@@ -7127,10 +7118,10 @@
         <v>135</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,10 +7152,10 @@
         <v>68</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M50" s="7">
         <v>82</v>
@@ -7176,10 +7167,10 @@
         <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7249,13 @@
         <v>330198</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M52" s="7">
         <v>311</v>
@@ -7273,13 +7264,13 @@
         <v>330198</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7298,13 @@
         <v>676078</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M53" s="7">
         <v>626</v>
@@ -7322,13 +7313,13 @@
         <v>676078</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7347,13 @@
         <v>913943</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M54" s="7">
         <v>842</v>
@@ -7371,13 +7362,13 @@
         <v>913943</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,10 +7396,10 @@
         <v>658107</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>259</v>
@@ -7420,10 +7411,10 @@
         <v>658107</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="Q55" s="7" t="s">
         <v>259</v>
@@ -7553,7 +7544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716DCD9-38DB-47DE-980E-A4411639C56F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388A47D8-0115-455E-821E-A4F00BEEB3CA}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7992,7 +7983,7 @@
         <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -8007,7 +7998,7 @@
         <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8026,13 @@
         <v>94853</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -8050,13 +8041,13 @@
         <v>94853</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8075,13 @@
         <v>193356</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -8099,13 +8090,13 @@
         <v>193356</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8124,13 @@
         <v>71579</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -8148,13 +8139,13 @@
         <v>71579</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8173,13 @@
         <v>43947</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -8197,13 +8188,13 @@
         <v>43947</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8273,13 @@
         <v>11292</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -8297,13 +8288,13 @@
         <v>11292</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8322,13 @@
         <v>66505</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -8346,13 +8337,13 @@
         <v>66505</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8371,13 @@
         <v>105363</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -8395,13 +8386,13 @@
         <v>105363</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,13 +8420,13 @@
         <v>59203</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -8444,13 +8435,13 @@
         <v>59203</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8478,13 +8469,13 @@
         <v>45492</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -8493,13 +8484,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,13 +8569,13 @@
         <v>41674</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -8593,13 +8584,13 @@
         <v>41674</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +8618,13 @@
         <v>89200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -8642,13 +8633,13 @@
         <v>89200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,13 +8667,13 @@
         <v>102333</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -8691,13 +8682,13 @@
         <v>102333</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,13 +8716,13 @@
         <v>45915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>143</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -8740,13 +8731,13 @@
         <v>45915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,10 +8765,10 @@
         <v>47933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>317</v>
@@ -8789,10 +8780,10 @@
         <v>47933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>317</v>
@@ -8874,13 +8865,13 @@
         <v>22030</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -8889,13 +8880,13 @@
         <v>22030</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8914,13 @@
         <v>68015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8938,13 +8929,13 @@
         <v>68015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,13 +8963,13 @@
         <v>74841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -8987,13 +8978,13 @@
         <v>74841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,10 +9015,10 @@
         <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -9039,10 +9030,10 @@
         <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>330</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9061,13 @@
         <v>6877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -9085,13 +9076,13 @@
         <v>6877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9161,13 @@
         <v>2710</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9185,13 +9176,13 @@
         <v>2710</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9210,13 @@
         <v>73677</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -9234,13 +9225,13 @@
         <v>73677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9268,13 +9259,13 @@
         <v>70419</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -9283,13 +9274,13 @@
         <v>70419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,13 +9308,13 @@
         <v>29392</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -9332,13 +9323,13 @@
         <v>29392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9357,13 @@
         <v>38533</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M38" s="7">
         <v>38</v>
@@ -9381,13 +9372,13 @@
         <v>38533</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9466,13 +9457,13 @@
         <v>84101</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -9481,13 +9472,13 @@
         <v>84101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,13 +9506,13 @@
         <v>107496</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -9530,13 +9521,13 @@
         <v>107496</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,13 +9555,13 @@
         <v>221843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M42" s="7">
         <v>210</v>
@@ -9579,13 +9570,13 @@
         <v>221843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9613,13 +9604,13 @@
         <v>133409</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M43" s="7">
         <v>130</v>
@@ -9628,13 +9619,13 @@
         <v>133409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,13 +9653,13 @@
         <v>81707</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -9677,13 +9668,13 @@
         <v>81707</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9753,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M46" s="7">
         <v>42</v>
@@ -9777,13 +9768,13 @@
         <v>50704</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9802,13 @@
         <v>178628</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -9826,13 +9817,13 @@
         <v>178628</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9851,13 @@
         <v>269722</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M48" s="7">
         <v>254</v>
@@ -9875,13 +9866,13 @@
         <v>269722</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9912,10 +9903,10 @@
         <v>149</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -9927,10 +9918,10 @@
         <v>149</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9958,13 +9949,13 @@
         <v>90234</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M50" s="7">
         <v>83</v>
@@ -9973,13 +9964,13 @@
         <v>90234</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,13 +10049,13 @@
         <v>251902</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M52" s="7">
         <v>225</v>
@@ -10073,13 +10064,13 @@
         <v>251902</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10107,13 +10098,13 @@
         <v>745486</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M53" s="7">
         <v>669</v>
@@ -10122,13 +10113,13 @@
         <v>745486</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10156,13 +10147,13 @@
         <v>1106691</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M54" s="7">
         <v>1061</v>
@@ -10171,13 +10162,13 @@
         <v>1106691</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10196,13 @@
         <v>563675</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M55" s="7">
         <v>545</v>
@@ -10220,13 +10211,13 @@
         <v>563675</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10254,13 +10245,13 @@
         <v>393781</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M56" s="7">
         <v>377</v>
@@ -10269,13 +10260,13 @@
         <v>393781</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10353,7 +10344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693E70A-DFB0-4776-9ED5-E1AA273CA63D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F052EA-7D30-4273-8B06-6D7932FB85B3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10370,7 +10361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10490,13 +10481,13 @@
         <v>16554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -10505,13 +10496,13 @@
         <v>16554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,13 +10530,13 @@
         <v>45991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -10554,13 +10545,13 @@
         <v>45991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,13 +10579,13 @@
         <v>52548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
@@ -10603,13 +10594,13 @@
         <v>52548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>82</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10637,13 +10628,13 @@
         <v>22034</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -10652,13 +10643,13 @@
         <v>22034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10686,13 +10677,13 @@
         <v>28149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -10701,13 +10692,13 @@
         <v>28149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10786,13 +10777,13 @@
         <v>36846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -10801,13 +10792,13 @@
         <v>36846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10835,13 +10826,13 @@
         <v>187630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
@@ -10850,13 +10841,13 @@
         <v>187630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10884,13 +10875,13 @@
         <v>96729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -10899,13 +10890,13 @@
         <v>96729</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10933,13 +10924,13 @@
         <v>38062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -10948,13 +10939,13 @@
         <v>38062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10982,13 +10973,13 @@
         <v>33646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -10997,13 +10988,13 @@
         <v>33646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11082,13 +11073,13 @@
         <v>20409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -11097,13 +11088,13 @@
         <v>20409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11131,13 +11122,13 @@
         <v>81221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -11146,13 +11137,13 @@
         <v>81221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11180,13 +11171,13 @@
         <v>39742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>57</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -11195,13 +11186,13 @@
         <v>39742</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>57</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11229,13 +11220,13 @@
         <v>32761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -11244,13 +11235,13 @@
         <v>32761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11278,13 +11269,13 @@
         <v>38801</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -11293,13 +11284,13 @@
         <v>38801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11378,13 +11369,13 @@
         <v>28518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -11393,13 +11384,13 @@
         <v>28518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>340</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11427,13 +11418,13 @@
         <v>120139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>169</v>
@@ -11442,13 +11433,13 @@
         <v>120139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11476,13 +11467,13 @@
         <v>73511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -11491,13 +11482,13 @@
         <v>73511</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11525,13 +11516,13 @@
         <v>36371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -11540,13 +11531,13 @@
         <v>36371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11577,10 +11568,10 @@
         <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -11592,10 +11583,10 @@
         <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11674,13 +11665,13 @@
         <v>2592</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -11689,13 +11680,13 @@
         <v>2592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11723,13 +11714,13 @@
         <v>47181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -11738,13 +11729,13 @@
         <v>47181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11772,13 +11763,13 @@
         <v>55303</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -11787,13 +11778,13 @@
         <v>55303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11824,10 +11815,10 @@
         <v>121</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -11839,10 +11830,10 @@
         <v>121</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11870,13 +11861,13 @@
         <v>9491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -11885,13 +11876,13 @@
         <v>9491</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11970,13 +11961,13 @@
         <v>11672</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -11985,13 +11976,13 @@
         <v>11672</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12019,13 +12010,13 @@
         <v>54906</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M35" s="7">
         <v>121</v>
@@ -12034,13 +12025,13 @@
         <v>54906</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>462</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12068,13 +12059,13 @@
         <v>37783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
@@ -12083,13 +12074,13 @@
         <v>37783</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12117,13 +12108,13 @@
         <v>36690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -12132,13 +12123,13 @@
         <v>36690</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>44</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12166,13 +12157,13 @@
         <v>17651</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -12181,13 +12172,13 @@
         <v>17651</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12266,13 +12257,13 @@
         <v>11435</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -12281,13 +12272,13 @@
         <v>11435</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12318,10 +12309,10 @@
         <v>69</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M41" s="7">
         <v>162</v>
@@ -12333,10 +12324,10 @@
         <v>69</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12364,13 +12355,13 @@
         <v>103249</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>348</v>
+        <v>471</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M42" s="7">
         <v>154</v>
@@ -12379,13 +12370,13 @@
         <v>103249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>348</v>
+        <v>471</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12413,13 +12404,13 @@
         <v>111357</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>476</v>
       </c>
       <c r="M43" s="7">
         <v>149</v>
@@ -12428,13 +12419,13 @@
         <v>111357</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12462,13 +12453,13 @@
         <v>87775</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M44" s="7">
         <v>113</v>
@@ -12477,13 +12468,13 @@
         <v>87775</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12562,13 +12553,13 @@
         <v>84547</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -12577,13 +12568,13 @@
         <v>84547</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12611,13 +12602,13 @@
         <v>114187</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="M47" s="7">
         <v>165</v>
@@ -12626,13 +12617,13 @@
         <v>114187</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12660,13 +12651,13 @@
         <v>174353</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M48" s="7">
         <v>222</v>
@@ -12675,13 +12666,13 @@
         <v>174353</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12709,13 +12700,13 @@
         <v>132370</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>231</v>
+        <v>488</v>
       </c>
       <c r="M49" s="7">
         <v>166</v>
@@ -12724,13 +12715,13 @@
         <v>132370</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>231</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12758,13 +12749,13 @@
         <v>30707</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>157</v>
+        <v>491</v>
       </c>
       <c r="M50" s="7">
         <v>34</v>
@@ -12773,13 +12764,13 @@
         <v>30707</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>157</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12858,13 +12849,13 @@
         <v>212574</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M52" s="7">
         <v>320</v>
@@ -12873,13 +12864,13 @@
         <v>212574</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12907,13 +12898,13 @@
         <v>757991</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M53" s="7">
         <v>1231</v>
@@ -12922,13 +12913,13 @@
         <v>757991</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12956,13 +12947,13 @@
         <v>633219</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M54" s="7">
         <v>933</v>
@@ -12971,13 +12962,13 @@
         <v>633219</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13005,13 +12996,13 @@
         <v>439924</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="M55" s="7">
         <v>631</v>
@@ -13020,13 +13011,13 @@
         <v>439924</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13054,13 +13045,13 @@
         <v>283468</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M56" s="7">
         <v>389</v>
@@ -13069,13 +13060,13 @@
         <v>283468</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7006F4BC-E768-462B-9DAF-EF8E7DE7EF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB8F149-B081-4801-89EA-D6904077CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0C8CB1F-16F3-412D-80E8-2F6A807B18CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3BC975-8A5D-406E-B493-4CAF850AE20A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="510">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,10 +92,10 @@
     <t>21,86%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>24,75%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>10,49%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,43 +143,46 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>11,98%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,1278 +191,1293 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>9,5%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>23,99%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2015 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>29,19%</t>
-  </si>
-  <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
     <t>28,55%</t>
   </si>
   <si>
@@ -1535,9 +1553,6 @@
     <t>27,21%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
     <t>29,02%</t>
   </si>
   <si>
@@ -1551,9 +1566,6 @@
   </si>
   <si>
     <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
   </si>
   <si>
     <t>13,48%</t>
@@ -1968,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041D75FC-FD8B-4649-8C52-EFA6C2FF9410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF004F06-5F41-4F40-B5EE-1DFFF7DCF67C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2603,7 +2615,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -2618,7 +2630,7 @@
         <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2684,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2697,13 +2709,13 @@
         <v>32765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2712,13 +2724,13 @@
         <v>32765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2758,13 @@
         <v>15303</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2761,13 +2773,13 @@
         <v>15303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2807,13 @@
         <v>18961</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2810,13 +2822,13 @@
         <v>18961</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2856,13 @@
         <v>14002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2859,13 +2871,13 @@
         <v>14002</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2905,13 @@
         <v>14967</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2908,13 +2920,13 @@
         <v>14967</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,7 +3011,7 @@
         <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3014,7 +3026,7 @@
         <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3054,13 @@
         <v>23219</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3057,13 +3069,13 @@
         <v>23219</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3103,13 @@
         <v>22583</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3106,13 +3118,13 @@
         <v>22583</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3152,13 @@
         <v>30871</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3155,13 +3167,13 @@
         <v>30871</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3201,13 @@
         <v>27739</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3204,13 +3216,13 @@
         <v>27739</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,7 +3276,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3301,13 @@
         <v>14353</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -3304,13 +3316,13 @@
         <v>14353</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3350,13 @@
         <v>6332</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3353,13 +3365,13 @@
         <v>6332</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3387,13 +3399,13 @@
         <v>19789</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3402,13 +3414,13 @@
         <v>19789</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3448,13 @@
         <v>9906</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3451,13 +3463,13 @@
         <v>9906</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3497,13 @@
         <v>7346</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3500,13 +3512,13 @@
         <v>7346</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3572,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3585,13 +3597,13 @@
         <v>12417</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3600,13 +3612,13 @@
         <v>12417</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3646,13 @@
         <v>27657</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -3649,13 +3661,13 @@
         <v>27657</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3695,13 @@
         <v>21221</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M36" s="7">
         <v>20</v>
@@ -3698,13 +3710,13 @@
         <v>21221</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3744,13 @@
         <v>16351</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -3747,13 +3759,13 @@
         <v>16351</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>14390</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -3796,13 +3808,13 @@
         <v>14390</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3868,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3881,7 +3893,7 @@
         <v>52028</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>111</v>
@@ -3896,7 +3908,7 @@
         <v>52028</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>111</v>
@@ -4768,7 +4780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02EBC1-D678-4115-9B78-078BE765A320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3CA071-51E9-4D18-97D0-45300C90AB0C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5373,13 +5385,13 @@
         <v>80560</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5388,13 +5400,13 @@
         <v>80560</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,7 +5460,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5473,7 +5485,7 @@
         <v>22431</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>172</v>
@@ -5488,7 +5500,7 @@
         <v>22431</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>172</v>
@@ -5522,13 +5534,13 @@
         <v>57328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5537,13 +5549,13 @@
         <v>57328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,13 +5632,13 @@
         <v>60126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5635,13 +5647,13 @@
         <v>60126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5681,13 @@
         <v>54767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -5684,13 +5696,13 @@
         <v>54767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5781,13 @@
         <v>51625</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>49</v>
@@ -5784,13 +5796,13 @@
         <v>51625</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5830,13 @@
         <v>122286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>114</v>
@@ -5833,13 +5845,13 @@
         <v>122286</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5879,13 @@
         <v>155743</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" s="7">
         <v>144</v>
@@ -5882,13 +5894,13 @@
         <v>155743</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,13 +5928,13 @@
         <v>143234</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M25" s="7">
         <v>129</v>
@@ -5931,13 +5943,13 @@
         <v>143234</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5977,13 @@
         <v>104947</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -5980,13 +5992,13 @@
         <v>104947</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6052,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6065,13 +6077,13 @@
         <v>17820</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6080,13 +6092,13 @@
         <v>17820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,13 +6126,13 @@
         <v>37838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6129,13 +6141,13 @@
         <v>37838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6175,13 @@
         <v>55303</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6178,13 +6190,13 @@
         <v>55303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6224,13 @@
         <v>45396</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6227,13 +6239,13 @@
         <v>45396</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6273,13 @@
         <v>31849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -6276,13 +6288,13 @@
         <v>31849</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,7 +6348,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6361,13 +6373,13 @@
         <v>26384</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -6376,13 +6388,13 @@
         <v>26384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6422,13 @@
         <v>63081</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
@@ -6425,13 +6437,13 @@
         <v>63081</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6471,13 @@
         <v>94592</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>91</v>
@@ -6474,13 +6486,13 @@
         <v>94592</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,13 +6520,13 @@
         <v>30555</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6523,13 +6535,13 @@
         <v>30555</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6569,13 @@
         <v>26563</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -6572,13 +6584,13 @@
         <v>26563</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,7 +6644,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6657,13 +6669,13 @@
         <v>58606</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>55</v>
@@ -6672,13 +6684,13 @@
         <v>58606</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6718,13 @@
         <v>146097</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -6721,13 +6733,13 @@
         <v>146097</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6755,13 +6767,13 @@
         <v>176160</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -6770,13 +6782,13 @@
         <v>176160</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6816,13 @@
         <v>121988</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M43" s="7">
         <v>113</v>
@@ -6819,13 +6831,13 @@
         <v>121988</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6856,10 +6868,10 @@
         <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -6871,10 +6883,10 @@
         <v>143</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6956,10 +6968,10 @@
         <v>45</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M46" s="7">
         <v>106</v>
@@ -6971,10 +6983,10 @@
         <v>45</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7014,13 @@
         <v>128432</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M47" s="7">
         <v>118</v>
@@ -7017,13 +7029,13 @@
         <v>128432</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7063,13 @@
         <v>205020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M48" s="7">
         <v>187</v>
@@ -7066,13 +7078,13 @@
         <v>205020</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,10 +7115,10 @@
         <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M49" s="7">
         <v>142</v>
@@ -7118,10 +7130,10 @@
         <v>135</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7161,13 @@
         <v>88804</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M50" s="7">
         <v>82</v>
@@ -7164,13 +7176,13 @@
         <v>88804</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>68</v>
+        <v>252</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7261,13 @@
         <v>330198</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="M52" s="7">
         <v>311</v>
@@ -7264,13 +7276,13 @@
         <v>330198</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7310,13 @@
         <v>676078</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M53" s="7">
         <v>626</v>
@@ -7313,13 +7325,13 @@
         <v>676078</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7359,13 @@
         <v>913943</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M54" s="7">
         <v>842</v>
@@ -7362,13 +7374,13 @@
         <v>913943</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7408,13 @@
         <v>658107</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M55" s="7">
         <v>603</v>
@@ -7411,13 +7423,13 @@
         <v>658107</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7457,13 @@
         <v>503832</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M56" s="7">
         <v>464</v>
@@ -7460,13 +7472,13 @@
         <v>503832</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,7 +7556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388A47D8-0115-455E-821E-A4F00BEEB3CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7787057-AFFF-4A4A-9816-16651ADDF6FF}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7561,7 +7573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7681,13 +7693,13 @@
         <v>7817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -7696,13 +7708,13 @@
         <v>7817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,13 +7742,13 @@
         <v>67114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -7745,13 +7757,13 @@
         <v>67114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,13 +7791,13 @@
         <v>68815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -7794,13 +7806,13 @@
         <v>68815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7828,13 +7840,13 @@
         <v>56682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -7843,13 +7855,13 @@
         <v>56682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7889,13 @@
         <v>39058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -7892,13 +7904,13 @@
         <v>39058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,13 +7989,13 @@
         <v>31574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -7992,13 +8004,13 @@
         <v>31574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,13 +8038,13 @@
         <v>94853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -8041,13 +8053,13 @@
         <v>94853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,13 +8087,13 @@
         <v>193356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -8090,13 +8102,13 @@
         <v>193356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8136,13 @@
         <v>71579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -8139,13 +8151,13 @@
         <v>71579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8185,13 @@
         <v>43947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -8188,13 +8200,13 @@
         <v>43947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,7 +8260,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8273,13 +8285,13 @@
         <v>11292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -8288,13 +8300,13 @@
         <v>11292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8334,13 @@
         <v>66505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -8337,13 +8349,13 @@
         <v>66505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,13 +8383,13 @@
         <v>105363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -8386,13 +8398,13 @@
         <v>105363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8420,13 +8432,13 @@
         <v>59203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -8435,13 +8447,13 @@
         <v>59203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8481,13 @@
         <v>45492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -8484,13 +8496,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8569,13 +8581,13 @@
         <v>41674</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -8584,13 +8596,13 @@
         <v>41674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8618,13 +8630,13 @@
         <v>89200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -8633,13 +8645,13 @@
         <v>89200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8667,13 +8679,13 @@
         <v>102333</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -8682,13 +8694,13 @@
         <v>102333</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8716,13 +8728,13 @@
         <v>45915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -8731,13 +8743,13 @@
         <v>45915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8765,13 +8777,13 @@
         <v>47933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -8780,13 +8792,13 @@
         <v>47933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8840,7 +8852,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8865,13 +8877,13 @@
         <v>22030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -8880,13 +8892,13 @@
         <v>22030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8914,13 +8926,13 @@
         <v>68015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8929,13 +8941,13 @@
         <v>68015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>26</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8963,13 +8975,13 @@
         <v>74841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -8978,13 +8990,13 @@
         <v>74841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,13 +9024,13 @@
         <v>23360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -9027,13 +9039,13 @@
         <v>23360</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>21</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,13 +9073,13 @@
         <v>6877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -9076,13 +9088,13 @@
         <v>6877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9136,7 +9148,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9161,13 +9173,13 @@
         <v>2710</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9176,13 +9188,13 @@
         <v>2710</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9210,13 +9222,13 @@
         <v>73677</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -9225,13 +9237,13 @@
         <v>73677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9271,13 @@
         <v>70419</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -9274,13 +9286,13 @@
         <v>70419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9308,13 +9320,13 @@
         <v>29392</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -9323,13 +9335,13 @@
         <v>29392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9357,13 +9369,13 @@
         <v>38533</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>38</v>
@@ -9372,13 +9384,13 @@
         <v>38533</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9432,7 +9444,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -9457,13 +9469,13 @@
         <v>84101</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -9472,13 +9484,13 @@
         <v>84101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,13 +9518,13 @@
         <v>107496</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -9521,13 +9533,13 @@
         <v>107496</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>171</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,13 +9567,13 @@
         <v>221843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M42" s="7">
         <v>210</v>
@@ -9570,13 +9582,13 @@
         <v>221843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,13 +9616,13 @@
         <v>133409</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="M43" s="7">
         <v>130</v>
@@ -9619,13 +9631,13 @@
         <v>133409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>40</v>
+        <v>361</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9653,13 +9665,13 @@
         <v>81707</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -9668,13 +9680,13 @@
         <v>81707</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9753,13 +9765,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M46" s="7">
         <v>42</v>
@@ -9768,13 +9780,13 @@
         <v>50704</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,13 +9814,13 @@
         <v>178628</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -9817,13 +9829,13 @@
         <v>178628</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9851,13 +9863,13 @@
         <v>269722</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M48" s="7">
         <v>254</v>
@@ -9866,13 +9878,13 @@
         <v>269722</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9903,10 +9915,10 @@
         <v>149</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -9918,10 +9930,10 @@
         <v>149</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>365</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9949,13 +9961,13 @@
         <v>90234</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="M50" s="7">
         <v>83</v>
@@ -9964,13 +9976,13 @@
         <v>90234</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10049,13 +10061,13 @@
         <v>251902</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M52" s="7">
         <v>225</v>
@@ -10064,13 +10076,13 @@
         <v>251902</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10098,13 +10110,13 @@
         <v>745486</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="M53" s="7">
         <v>669</v>
@@ -10113,13 +10125,13 @@
         <v>745486</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,13 +10159,13 @@
         <v>1106691</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M54" s="7">
         <v>1061</v>
@@ -10162,13 +10174,13 @@
         <v>1106691</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10196,13 +10208,13 @@
         <v>563675</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M55" s="7">
         <v>545</v>
@@ -10211,13 +10223,13 @@
         <v>563675</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,13 +10257,13 @@
         <v>393781</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>377</v>
@@ -10260,13 +10272,13 @@
         <v>393781</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10344,7 +10356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F052EA-7D30-4273-8B06-6D7932FB85B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91146F39-23D9-4BFD-91B9-2E28F80F2687}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10361,7 +10373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10481,13 +10493,13 @@
         <v>16554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -10496,13 +10508,13 @@
         <v>16554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10530,13 +10542,13 @@
         <v>45991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -10545,13 +10557,13 @@
         <v>45991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10579,13 +10591,13 @@
         <v>52548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
@@ -10594,13 +10606,13 @@
         <v>52548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10628,13 +10640,13 @@
         <v>22034</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -10643,13 +10655,13 @@
         <v>22034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10677,13 +10689,13 @@
         <v>28149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -10692,13 +10704,13 @@
         <v>28149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10777,13 +10789,13 @@
         <v>36846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -10792,13 +10804,13 @@
         <v>36846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10826,13 +10838,13 @@
         <v>187630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
@@ -10841,13 +10853,13 @@
         <v>187630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10875,13 +10887,13 @@
         <v>96729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -10890,13 +10902,13 @@
         <v>96729</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10924,13 +10936,13 @@
         <v>38062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -10939,13 +10951,13 @@
         <v>38062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10973,13 +10985,13 @@
         <v>33646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -10988,13 +11000,13 @@
         <v>33646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11048,7 +11060,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -11073,13 +11085,13 @@
         <v>20409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -11088,13 +11100,13 @@
         <v>20409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11122,13 +11134,13 @@
         <v>81221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
@@ -11137,13 +11149,13 @@
         <v>81221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11171,13 +11183,13 @@
         <v>39742</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -11186,13 +11198,13 @@
         <v>39742</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11220,13 +11232,13 @@
         <v>32761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -11235,13 +11247,13 @@
         <v>32761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11269,13 +11281,13 @@
         <v>38801</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -11284,13 +11296,13 @@
         <v>38801</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11369,13 +11381,13 @@
         <v>28518</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -11384,13 +11396,13 @@
         <v>28518</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11418,13 +11430,13 @@
         <v>120139</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>169</v>
@@ -11433,13 +11445,13 @@
         <v>120139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11467,13 +11479,13 @@
         <v>73511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
@@ -11482,13 +11494,13 @@
         <v>73511</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11516,13 +11528,13 @@
         <v>36371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>224</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -11531,13 +11543,13 @@
         <v>36371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11565,13 +11577,13 @@
         <v>37248</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
@@ -11580,13 +11592,13 @@
         <v>37248</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11640,7 +11652,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -11665,13 +11677,13 @@
         <v>2592</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -11680,13 +11692,13 @@
         <v>2592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11714,13 +11726,13 @@
         <v>47181</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -11729,13 +11741,13 @@
         <v>47181</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11763,13 +11775,13 @@
         <v>55303</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
@@ -11778,13 +11790,13 @@
         <v>55303</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11812,13 +11824,13 @@
         <v>30280</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -11827,13 +11839,13 @@
         <v>30280</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>121</v>
+        <v>453</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11861,13 +11873,13 @@
         <v>9491</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -11876,13 +11888,13 @@
         <v>9491</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11936,7 +11948,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11961,13 +11973,13 @@
         <v>11672</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>452</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
@@ -11976,13 +11988,13 @@
         <v>11672</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>452</v>
+        <v>214</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12010,13 +12022,13 @@
         <v>54906</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M35" s="7">
         <v>121</v>
@@ -12025,13 +12037,13 @@
         <v>54906</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12059,13 +12071,13 @@
         <v>37783</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
@@ -12074,13 +12086,13 @@
         <v>37783</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12108,13 +12120,13 @@
         <v>36690</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -12123,13 +12135,13 @@
         <v>36690</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12157,13 +12169,13 @@
         <v>17651</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -12172,13 +12184,13 @@
         <v>17651</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12232,7 +12244,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -12257,13 +12269,13 @@
         <v>11435</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -12272,13 +12284,13 @@
         <v>11435</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12306,13 +12318,13 @@
         <v>106738</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="M41" s="7">
         <v>162</v>
@@ -12321,13 +12333,13 @@
         <v>106738</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12355,13 +12367,13 @@
         <v>103249</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>472</v>
+        <v>194</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M42" s="7">
         <v>154</v>
@@ -12370,13 +12382,13 @@
         <v>103249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>472</v>
+        <v>194</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12404,13 +12416,13 @@
         <v>111357</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="M43" s="7">
         <v>149</v>
@@ -12419,13 +12431,13 @@
         <v>111357</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12453,13 +12465,13 @@
         <v>87775</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="M44" s="7">
         <v>113</v>
@@ -12468,13 +12480,13 @@
         <v>87775</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12553,13 +12565,13 @@
         <v>84547</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -12568,13 +12580,13 @@
         <v>84547</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12602,13 +12614,13 @@
         <v>114187</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="M47" s="7">
         <v>165</v>
@@ -12617,13 +12629,13 @@
         <v>114187</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12651,13 +12663,13 @@
         <v>174353</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="M48" s="7">
         <v>222</v>
@@ -12666,13 +12678,13 @@
         <v>174353</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>470</v>
+        <v>302</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12700,13 +12712,13 @@
         <v>132370</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M49" s="7">
         <v>166</v>
@@ -12715,13 +12727,13 @@
         <v>132370</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12749,13 +12761,13 @@
         <v>30707</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="M50" s="7">
         <v>34</v>
@@ -12764,13 +12776,13 @@
         <v>30707</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12849,13 +12861,13 @@
         <v>212574</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="M52" s="7">
         <v>320</v>
@@ -12864,13 +12876,13 @@
         <v>212574</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12898,13 +12910,13 @@
         <v>757991</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M53" s="7">
         <v>1231</v>
@@ -12913,13 +12925,13 @@
         <v>757991</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12947,13 +12959,13 @@
         <v>633219</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>498</v>
+        <v>251</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M54" s="7">
         <v>933</v>
@@ -12962,13 +12974,13 @@
         <v>633219</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>498</v>
+        <v>251</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12996,13 +13008,13 @@
         <v>439924</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M55" s="7">
         <v>631</v>
@@ -13011,13 +13023,13 @@
         <v>439924</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13045,13 +13057,13 @@
         <v>283468</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M56" s="7">
         <v>389</v>
@@ -13060,13 +13072,13 @@
         <v>283468</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB8F149-B081-4801-89EA-D6904077CB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7559C2A-6889-44E6-BBFC-B2272C2DADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2C3BC975-8A5D-406E-B493-4CAF850AE20A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60371992-06A0-4DA3-84C7-149F2A740CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="509">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>Hace 3 o más años</t>
@@ -92,10 +92,10 @@
     <t>21,86%</t>
   </si>
   <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>Entre 1 y 3 años</t>
@@ -104,10 +104,10 @@
     <t>24,75%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>Entre 6 meses y 1 años</t>
@@ -116,10 +116,10 @@
     <t>18,59%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>Hace menos de 6 meses</t>
@@ -128,10 +128,10 @@
     <t>10,49%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,46 +143,43 @@
     <t>18,96%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>11,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -191,43 +188,46 @@
     <t>34,13%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>9,28%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -236,1339 +236,1336 @@
     <t>16,66%</t>
   </si>
   <si>
-    <t>11,3%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2016 (Tasa respuesta: 43,8%)</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
+    <t>29,04%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF004F06-5F41-4F40-B5EE-1DFFF7DCF67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D028548D-180A-49C9-B8C9-370AD04A3CAD}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2615,7 +2612,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -2630,7 +2627,7 @@
         <v>46</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,7 +2681,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2709,13 +2706,13 @@
         <v>32765</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -2724,13 +2721,13 @@
         <v>32765</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2755,13 @@
         <v>15303</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2773,13 +2770,13 @@
         <v>15303</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2804,13 @@
         <v>18961</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2822,13 +2819,13 @@
         <v>18961</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2853,13 @@
         <v>14002</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>14</v>
@@ -2871,13 +2868,13 @@
         <v>14002</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2902,13 @@
         <v>14967</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="M20" s="7">
         <v>15</v>
@@ -2920,13 +2917,13 @@
         <v>14967</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,7 +3008,7 @@
         <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -3026,7 +3023,7 @@
         <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3051,13 @@
         <v>23219</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
@@ -3069,13 +3066,13 @@
         <v>23219</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3100,13 @@
         <v>22583</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -3118,13 +3115,13 @@
         <v>22583</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3149,13 @@
         <v>30871</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3167,13 +3164,13 @@
         <v>30871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3198,13 @@
         <v>27739</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -3216,13 +3213,13 @@
         <v>27739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,7 +3273,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3301,13 +3298,13 @@
         <v>14353</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -3316,13 +3313,13 @@
         <v>14353</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3347,13 @@
         <v>6332</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>6</v>
@@ -3365,13 +3362,13 @@
         <v>6332</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,13 +3396,13 @@
         <v>19789</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3414,13 +3411,13 @@
         <v>19789</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3445,13 @@
         <v>9906</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -3463,13 +3460,13 @@
         <v>9906</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3494,13 @@
         <v>7346</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -3512,13 +3509,13 @@
         <v>7346</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3569,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3597,13 +3594,13 @@
         <v>12417</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>12</v>
@@ -3612,13 +3609,13 @@
         <v>12417</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3643,13 @@
         <v>27657</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M35" s="7">
         <v>25</v>
@@ -3661,13 +3658,13 @@
         <v>27657</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3692,13 @@
         <v>21221</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M36" s="7">
         <v>20</v>
@@ -3710,13 +3707,13 @@
         <v>21221</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3741,13 @@
         <v>16351</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -3759,13 +3756,13 @@
         <v>16351</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3790,13 @@
         <v>14390</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -3808,13 +3805,13 @@
         <v>14390</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3865,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3893,7 +3890,7 @@
         <v>52028</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>111</v>
@@ -3908,7 +3905,7 @@
         <v>52028</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>111</v>
@@ -4780,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3CA071-51E9-4D18-97D0-45300C90AB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD598BEB-976C-4029-984E-FC6CB9E5E49B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5385,13 +5382,13 @@
         <v>80560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5400,13 +5397,13 @@
         <v>80560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5457,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5485,7 +5482,7 @@
         <v>22431</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>172</v>
@@ -5500,7 +5497,7 @@
         <v>22431</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>172</v>
@@ -5534,13 +5531,13 @@
         <v>57328</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5549,13 +5546,13 @@
         <v>57328</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5580,13 @@
         <v>95567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -5598,13 +5595,13 @@
         <v>95567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,7 +5629,7 @@
         <v>60126</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>179</v>
@@ -5647,7 +5644,7 @@
         <v>60126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>179</v>
@@ -6052,7 +6049,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6175,13 +6172,13 @@
         <v>55303</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6190,13 +6187,13 @@
         <v>55303</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6224,10 +6221,10 @@
         <v>45396</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>209</v>
@@ -6239,10 +6236,10 @@
         <v>45396</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>209</v>
@@ -6276,10 +6273,10 @@
         <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -6291,10 +6288,10 @@
         <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,7 +6345,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6373,13 +6370,13 @@
         <v>26384</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -6388,13 +6385,13 @@
         <v>26384</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6422,13 +6419,13 @@
         <v>63081</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
@@ -6437,13 +6434,13 @@
         <v>63081</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6471,13 +6468,13 @@
         <v>94592</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M36" s="7">
         <v>91</v>
@@ -6486,13 +6483,13 @@
         <v>94592</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6517,13 @@
         <v>30555</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6535,13 +6532,13 @@
         <v>30555</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6566,13 @@
         <v>26563</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -6584,13 +6581,13 @@
         <v>26563</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,7 +6641,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -6669,13 +6666,13 @@
         <v>58606</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M40" s="7">
         <v>55</v>
@@ -6684,13 +6681,13 @@
         <v>58606</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6715,13 @@
         <v>146097</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -6733,13 +6730,13 @@
         <v>146097</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>232</v>
+        <v>141</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6764,13 @@
         <v>176160</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -6782,13 +6779,13 @@
         <v>176160</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6813,13 @@
         <v>121988</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M43" s="7">
         <v>113</v>
@@ -6831,13 +6828,13 @@
         <v>121988</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,10 +6865,10 @@
         <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -6883,10 +6880,10 @@
         <v>143</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,10 +6965,10 @@
         <v>45</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M46" s="7">
         <v>106</v>
@@ -6983,10 +6980,10 @@
         <v>45</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7011,13 @@
         <v>128432</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M47" s="7">
         <v>118</v>
@@ -7029,13 +7026,13 @@
         <v>128432</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7060,13 @@
         <v>205020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M48" s="7">
         <v>187</v>
@@ -7078,13 +7075,13 @@
         <v>205020</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,10 +7112,10 @@
         <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M49" s="7">
         <v>142</v>
@@ -7130,10 +7127,10 @@
         <v>135</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7158,13 @@
         <v>88804</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M50" s="7">
         <v>82</v>
@@ -7176,13 +7173,13 @@
         <v>88804</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>252</v>
+        <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7258,13 @@
         <v>330198</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="M52" s="7">
         <v>311</v>
@@ -7276,13 +7273,13 @@
         <v>330198</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7307,13 @@
         <v>676078</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M53" s="7">
         <v>626</v>
@@ -7325,13 +7322,13 @@
         <v>676078</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,13 +7356,13 @@
         <v>913943</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M54" s="7">
         <v>842</v>
@@ -7374,13 +7371,13 @@
         <v>913943</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7405,13 @@
         <v>658107</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M55" s="7">
         <v>603</v>
@@ -7423,13 +7420,13 @@
         <v>658107</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7457,13 +7454,13 @@
         <v>503832</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M56" s="7">
         <v>464</v>
@@ -7472,13 +7469,13 @@
         <v>503832</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,7 +7553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7787057-AFFF-4A4A-9816-16651ADDF6FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AA1E7B-73D2-43AF-A0F6-9A048B589239}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7573,7 +7570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7693,13 +7690,13 @@
         <v>7817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -7708,13 +7705,13 @@
         <v>7817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7739,13 @@
         <v>67114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -7757,13 +7754,13 @@
         <v>67114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7788,13 @@
         <v>68815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -7806,13 +7803,13 @@
         <v>68815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7837,13 @@
         <v>56682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -7855,13 +7852,13 @@
         <v>56682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7886,13 @@
         <v>39058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -7904,13 +7901,13 @@
         <v>39058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +7986,13 @@
         <v>31574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -8004,13 +8001,13 @@
         <v>31574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8035,13 @@
         <v>94853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -8053,13 +8050,13 @@
         <v>94853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8084,13 @@
         <v>193356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -8102,13 +8099,13 @@
         <v>193356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8133,13 @@
         <v>71579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -8151,13 +8148,13 @@
         <v>71579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8182,13 @@
         <v>43947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -8200,13 +8197,13 @@
         <v>43947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,7 +8257,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8285,13 +8282,13 @@
         <v>11292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -8300,13 +8297,13 @@
         <v>11292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8334,13 +8331,13 @@
         <v>66505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -8349,13 +8346,13 @@
         <v>66505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8380,13 @@
         <v>105363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -8398,13 +8395,13 @@
         <v>105363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8432,13 +8429,13 @@
         <v>59203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -8447,13 +8444,13 @@
         <v>59203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,13 +8478,13 @@
         <v>45492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -8496,13 +8493,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8578,13 @@
         <v>41674</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -8596,13 +8593,13 @@
         <v>41674</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8627,13 @@
         <v>89200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -8645,13 +8642,13 @@
         <v>89200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,13 +8676,13 @@
         <v>102333</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -8694,13 +8691,13 @@
         <v>102333</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8725,13 @@
         <v>45915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -8743,13 +8740,13 @@
         <v>45915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8777,13 +8774,13 @@
         <v>47933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -8792,13 +8789,13 @@
         <v>47933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8852,7 +8849,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8877,13 +8874,13 @@
         <v>22030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -8892,13 +8889,13 @@
         <v>22030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8926,13 +8923,13 @@
         <v>68015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8941,13 +8938,13 @@
         <v>68015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8975,13 +8972,13 @@
         <v>74841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -8990,13 +8987,13 @@
         <v>74841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,13 +9021,13 @@
         <v>23360</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -9039,13 +9036,13 @@
         <v>23360</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>332</v>
+        <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,13 +9070,13 @@
         <v>6877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -9088,13 +9085,13 @@
         <v>6877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9145,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9173,13 +9170,13 @@
         <v>2710</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9188,13 +9185,13 @@
         <v>2710</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,13 +9219,13 @@
         <v>73677</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -9237,13 +9234,13 @@
         <v>73677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9271,13 +9268,13 @@
         <v>70419</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -9286,13 +9283,13 @@
         <v>70419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9320,13 +9317,13 @@
         <v>29392</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -9335,13 +9332,13 @@
         <v>29392</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9369,13 +9366,13 @@
         <v>38533</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M38" s="7">
         <v>38</v>
@@ -9384,13 +9381,13 @@
         <v>38533</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,7 +9441,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -9469,13 +9466,13 @@
         <v>84101</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -9484,13 +9481,13 @@
         <v>84101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9518,13 +9515,13 @@
         <v>107496</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -9533,13 +9530,13 @@
         <v>107496</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9567,13 +9564,13 @@
         <v>221843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M42" s="7">
         <v>210</v>
@@ -9582,13 +9579,13 @@
         <v>221843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9616,13 +9613,13 @@
         <v>133409</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M43" s="7">
         <v>130</v>
@@ -9631,13 +9628,13 @@
         <v>133409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9665,13 +9662,13 @@
         <v>81707</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -9680,13 +9677,13 @@
         <v>81707</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9765,13 +9762,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M46" s="7">
         <v>42</v>
@@ -9780,13 +9777,13 @@
         <v>50704</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>29</v>
+        <v>364</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9814,13 +9811,13 @@
         <v>178628</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -9829,13 +9826,13 @@
         <v>178628</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9863,13 +9860,13 @@
         <v>269722</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M48" s="7">
         <v>254</v>
@@ -9878,13 +9875,13 @@
         <v>269722</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9915,10 +9912,10 @@
         <v>149</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -9930,10 +9927,10 @@
         <v>149</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>100</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9961,13 +9958,13 @@
         <v>90234</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="M50" s="7">
         <v>83</v>
@@ -9976,13 +9973,13 @@
         <v>90234</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10061,10 +10058,10 @@
         <v>251902</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>379</v>
@@ -10076,10 +10073,10 @@
         <v>251902</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P52" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>379</v>
@@ -10110,13 +10107,13 @@
         <v>745486</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M53" s="7">
         <v>669</v>
@@ -10125,13 +10122,13 @@
         <v>745486</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10159,13 +10156,13 @@
         <v>1106691</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M54" s="7">
         <v>1061</v>
@@ -10174,13 +10171,13 @@
         <v>1106691</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10208,13 +10205,13 @@
         <v>563675</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>545</v>
@@ -10223,13 +10220,13 @@
         <v>563675</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>150</v>
+        <v>387</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10257,13 +10254,13 @@
         <v>393781</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M56" s="7">
         <v>377</v>
@@ -10272,13 +10269,13 @@
         <v>393781</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10356,7 +10353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91146F39-23D9-4BFD-91B9-2E28F80F2687}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FFD73D-FEFF-4062-B21B-0B83B8EBC990}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10373,7 +10370,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10493,13 +10490,13 @@
         <v>16554</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -10508,13 +10505,13 @@
         <v>16554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,13 +10539,13 @@
         <v>45991</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
@@ -10557,13 +10554,13 @@
         <v>45991</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10591,13 +10588,13 @@
         <v>52548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
@@ -10606,13 +10603,13 @@
         <v>52548</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10640,13 +10637,13 @@
         <v>22034</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
@@ -10655,13 +10652,13 @@
         <v>22034</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10689,13 +10686,13 @@
         <v>28149</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -10704,13 +10701,13 @@
         <v>28149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10789,13 +10786,13 @@
         <v>36846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -10804,13 +10801,13 @@
         <v>36846</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10838,13 +10835,13 @@
         <v>187630</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
@@ -10853,13 +10850,13 @@
         <v>187630</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10887,13 +10884,13 @@
         <v>96729</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
@@ -10902,13 +10899,13 @@
         <v>96729</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10936,13 +10933,13 @@
         <v>38062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>413</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
@@ -10951,13 +10948,13 @@
         <v>38062</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>413</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10985,13 +10982,13 @@
         <v>33646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
@@ -11000,13 +10997,13 @@
         <v>33646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11060,7 +11057,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -11085,13 +11082,13 @@
         <v>20409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -11100,13 +11097,13 @@
         <v>20409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11134,10 +11131,10 @@
         <v>81221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>422</v>
@@ -11149,10 +11146,10 @@
         <v>81221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>422</v>
@@ -11186,10 +11183,10 @@
         <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -11201,10 +11198,10 @@
         <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11232,10 +11229,10 @@
         <v>32761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>427</v>
@@ -11247,10 +11244,10 @@
         <v>32761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>427</v>
@@ -11528,13 +11525,13 @@
         <v>36371</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -11543,13 +11540,13 @@
         <v>36371</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11577,7 +11574,7 @@
         <v>37248</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>442</v>
@@ -11592,7 +11589,7 @@
         <v>37248</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>442</v>
@@ -11652,7 +11649,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -11824,13 +11821,13 @@
         <v>30280</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
@@ -11839,13 +11836,13 @@
         <v>30280</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11873,13 +11870,13 @@
         <v>9491</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -11888,13 +11885,13 @@
         <v>9491</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11948,7 +11945,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -11973,7 +11970,7 @@
         <v>11672</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>458</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>459</v>
@@ -11988,7 +11985,7 @@
         <v>11672</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>458</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>459</v>
@@ -12126,7 +12123,7 @@
         <v>468</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>469</v>
+        <v>44</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
@@ -12141,7 +12138,7 @@
         <v>468</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>469</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12169,13 +12166,13 @@
         <v>17651</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
@@ -12184,13 +12181,13 @@
         <v>17651</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12244,7 +12241,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -12269,13 +12266,13 @@
         <v>11435</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
@@ -12284,13 +12281,13 @@
         <v>11435</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12318,13 +12315,13 @@
         <v>106738</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
       <c r="M41" s="7">
         <v>162</v>
@@ -12333,13 +12330,13 @@
         <v>106738</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>302</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12367,13 +12364,13 @@
         <v>103249</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>194</v>
+        <v>476</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M42" s="7">
         <v>154</v>
@@ -12382,13 +12379,13 @@
         <v>103249</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>194</v>
+        <v>476</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12416,13 +12413,13 @@
         <v>111357</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>149</v>
@@ -12431,13 +12428,13 @@
         <v>111357</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>482</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12465,13 +12462,13 @@
         <v>87775</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M44" s="7">
         <v>113</v>
@@ -12480,13 +12477,13 @@
         <v>87775</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12565,13 +12562,13 @@
         <v>84547</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
@@ -12580,13 +12577,13 @@
         <v>84547</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12614,13 +12611,13 @@
         <v>114187</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M47" s="7">
         <v>165</v>
@@ -12629,13 +12626,13 @@
         <v>114187</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12663,13 +12660,13 @@
         <v>174353</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M48" s="7">
         <v>222</v>
@@ -12678,13 +12675,13 @@
         <v>174353</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12712,13 +12709,13 @@
         <v>132370</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="K49" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="L49" s="7" t="s">
-        <v>494</v>
+        <v>231</v>
       </c>
       <c r="M49" s="7">
         <v>166</v>
@@ -12727,13 +12724,13 @@
         <v>132370</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P49" s="7" t="s">
-        <v>493</v>
-      </c>
       <c r="Q49" s="7" t="s">
-        <v>494</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12761,13 +12758,13 @@
         <v>30707</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>497</v>
+        <v>157</v>
       </c>
       <c r="M50" s="7">
         <v>34</v>
@@ -12776,13 +12773,13 @@
         <v>30707</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>497</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12861,13 +12858,13 @@
         <v>212574</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M52" s="7">
         <v>320</v>
@@ -12876,13 +12873,13 @@
         <v>212574</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12913,10 +12910,10 @@
         <v>447</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M53" s="7">
         <v>1231</v>
@@ -12928,10 +12925,10 @@
         <v>447</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12959,13 +12956,13 @@
         <v>633219</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M54" s="7">
         <v>933</v>
@@ -12974,13 +12971,13 @@
         <v>633219</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13008,13 +13005,13 @@
         <v>439924</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M55" s="7">
         <v>631</v>
@@ -13023,13 +13020,13 @@
         <v>439924</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13057,13 +13054,13 @@
         <v>283468</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M56" s="7">
         <v>389</v>
@@ -13072,13 +13069,13 @@
         <v>283468</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7559C2A-6889-44E6-BBFC-B2272C2DADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B88530-19A7-464F-91F6-3C8586CA1216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60371992-06A0-4DA3-84C7-149F2A740CC7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D07EDC7E-9B83-4697-B150-2F3052F38B3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="524">
   <si>
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2007 (Tasa respuesta: 16,31%)</t>
   </si>
@@ -512,6 +512,51 @@
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
     <t>7,93%</t>
   </si>
   <si>
@@ -593,49 +638,49 @@
     <t>24,37%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>9,47%</t>
@@ -854,9 +899,6 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
     <t>35,1%</t>
   </si>
   <si>
@@ -866,9 +908,6 @@
     <t>18,54%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
     <t>16,31%</t>
   </si>
   <si>
@@ -1220,157 +1259,166 @@
     <t>Población según el tiempo desde que efectuaron alguna visita al ginecólogo  por algún motivo distinto a los relacionados con un embarazo o parto en 2023 (Tasa respuesta: 40,08%)</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,21%</t>
+    <t>7,18%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>8,56%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>1,79%</t>
@@ -1379,193 +1427,190 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
 </sst>
 </file>
@@ -1977,7 +2022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D028548D-180A-49C9-B8C9-370AD04A3CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642A229D-53EB-46A0-B266-E1AA812225B6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4777,7 +4822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD598BEB-976C-4029-984E-FC6CB9E5E49B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B3FF5-22F9-4C85-8902-52A5BC7A6A8F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,30 +4953,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13729</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="7">
+        <v>13729</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,30 +5002,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="I5" s="7">
+        <v>55404</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="N5" s="7">
+        <v>55404</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,30 +5051,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="I6" s="7">
+        <v>63997</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N6" s="7">
+        <v>63997</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,30 +5100,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="I7" s="7">
+        <v>73174</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="N7" s="7">
+        <v>73174</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,30 +5149,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43546</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="N8" s="7">
+        <v>43546</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,30 +5198,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="I9" s="7">
+        <v>249850</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="N9" s="7">
+        <v>249850</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5255,13 @@
         <v>37623</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5201,13 +5270,13 @@
         <v>37623</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5304,13 @@
         <v>121017</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>110</v>
@@ -5250,13 +5319,13 @@
         <v>121017</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5353,13 @@
         <v>131559</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -5299,13 +5368,13 @@
         <v>131559</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5402,13 @@
         <v>103405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -5348,13 +5417,13 @@
         <v>103405</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5451,13 @@
         <v>80560</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -5397,13 +5466,13 @@
         <v>80560</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,10 +5554,10 @@
         <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -5500,10 +5569,10 @@
         <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,10 +5603,10 @@
         <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>52</v>
@@ -5549,10 +5618,10 @@
         <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5649,13 @@
         <v>95567</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="M18" s="7">
         <v>89</v>
@@ -5595,13 +5664,13 @@
         <v>95567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,10 +5701,10 @@
         <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -5647,10 +5716,10 @@
         <v>147</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5747,13 @@
         <v>54767</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>50</v>
@@ -5693,13 +5762,13 @@
         <v>54767</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,34 +5841,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I22" s="7">
-        <v>51625</v>
+        <v>37896</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M22" s="7">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>51625</v>
+        <v>37896</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,34 +5890,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="I23" s="7">
-        <v>122286</v>
+        <v>66882</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M23" s="7">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="N23" s="7">
-        <v>122286</v>
+        <v>66882</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,34 +5939,34 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="I24" s="7">
-        <v>155743</v>
+        <v>91746</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="M24" s="7">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="N24" s="7">
-        <v>155743</v>
+        <v>91746</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,34 +5988,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="I25" s="7">
-        <v>143234</v>
+        <v>70061</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M25" s="7">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="N25" s="7">
-        <v>143234</v>
+        <v>70061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,34 +6037,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7">
-        <v>104947</v>
+        <v>61402</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="N26" s="7">
-        <v>104947</v>
+        <v>61402</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,10 +6086,10 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>534</v>
+        <v>313</v>
       </c>
       <c r="I27" s="7">
-        <v>577836</v>
+        <v>327986</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -6032,10 +6101,10 @@
         <v>31</v>
       </c>
       <c r="M27" s="7">
-        <v>534</v>
+        <v>313</v>
       </c>
       <c r="N27" s="7">
-        <v>577836</v>
+        <v>327986</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -6074,13 +6143,13 @@
         <v>17820</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -6089,13 +6158,13 @@
         <v>17820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6192,13 @@
         <v>37838</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M29" s="7">
         <v>37</v>
@@ -6138,13 +6207,13 @@
         <v>37838</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,10 +6244,10 @@
         <v>91</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -6190,10 +6259,10 @@
         <v>91</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6290,13 @@
         <v>45396</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -6236,13 +6305,13 @@
         <v>45396</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6339,13 @@
         <v>31849</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>30</v>
@@ -6285,13 +6354,13 @@
         <v>31849</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6439,13 @@
         <v>26384</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -6385,13 +6454,13 @@
         <v>26384</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6488,13 @@
         <v>63081</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
@@ -6434,13 +6503,13 @@
         <v>63081</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6537,13 @@
         <v>94592</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>91</v>
@@ -6483,13 +6552,13 @@
         <v>94592</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6586,13 @@
         <v>30555</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6532,13 +6601,13 @@
         <v>30555</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6635,13 @@
         <v>26563</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>25</v>
@@ -6581,13 +6650,13 @@
         <v>26563</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6735,13 @@
         <v>58606</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>55</v>
@@ -6681,13 +6750,13 @@
         <v>58606</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6784,13 @@
         <v>146097</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M41" s="7">
         <v>134</v>
@@ -6730,13 +6799,13 @@
         <v>146097</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6764,13 +6833,13 @@
         <v>176160</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -6779,13 +6848,13 @@
         <v>176160</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,13 +6882,13 @@
         <v>121988</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M43" s="7">
         <v>113</v>
@@ -6828,13 +6897,13 @@
         <v>121988</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,10 +6934,10 @@
         <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="M44" s="7">
         <v>104</v>
@@ -6880,10 +6949,10 @@
         <v>143</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,10 +7034,10 @@
         <v>45</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="M46" s="7">
         <v>106</v>
@@ -6980,10 +7049,10 @@
         <v>45</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7011,13 +7080,13 @@
         <v>128432</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M47" s="7">
         <v>118</v>
@@ -7026,13 +7095,13 @@
         <v>128432</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7129,13 @@
         <v>205020</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M48" s="7">
         <v>187</v>
@@ -7075,13 +7144,13 @@
         <v>205020</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,10 +7181,10 @@
         <v>135</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M49" s="7">
         <v>142</v>
@@ -7127,10 +7196,10 @@
         <v>135</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,10 +7230,10 @@
         <v>68</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="M50" s="7">
         <v>82</v>
@@ -7176,10 +7245,10 @@
         <v>68</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7327,13 @@
         <v>330198</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M52" s="7">
         <v>311</v>
@@ -7273,13 +7342,13 @@
         <v>330198</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7376,13 @@
         <v>676078</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="M53" s="7">
         <v>626</v>
@@ -7322,13 +7391,13 @@
         <v>676078</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7425,13 @@
         <v>913943</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="M54" s="7">
         <v>842</v>
@@ -7371,13 +7440,13 @@
         <v>913943</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7474,13 @@
         <v>658107</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M55" s="7">
         <v>603</v>
@@ -7420,13 +7489,13 @@
         <v>658107</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7454,13 +7523,13 @@
         <v>503832</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="M56" s="7">
         <v>464</v>
@@ -7469,13 +7538,13 @@
         <v>503832</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,7 +7622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AA1E7B-73D2-43AF-A0F6-9A048B589239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D585A190-4E8A-48E7-86C3-0535BABD2D1C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7570,7 +7639,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7690,13 +7759,13 @@
         <v>7817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -7705,13 +7774,13 @@
         <v>7817</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7808,13 @@
         <v>67114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
@@ -7754,13 +7823,13 @@
         <v>67114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7857,13 @@
         <v>68815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M6" s="7">
         <v>66</v>
@@ -7803,13 +7872,13 @@
         <v>68815</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7906,13 @@
         <v>56682</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>55</v>
@@ -7852,13 +7921,13 @@
         <v>56682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,13 +7955,13 @@
         <v>39058</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>39</v>
@@ -7901,13 +7970,13 @@
         <v>39058</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +8055,13 @@
         <v>31574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>28</v>
@@ -8001,13 +8070,13 @@
         <v>31574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8035,13 +8104,13 @@
         <v>94853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>85</v>
@@ -8050,13 +8119,13 @@
         <v>94853</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8153,13 @@
         <v>193356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="M12" s="7">
         <v>183</v>
@@ -8099,13 +8168,13 @@
         <v>193356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8202,13 @@
         <v>71579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -8148,13 +8217,13 @@
         <v>71579</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8251,13 @@
         <v>43947</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>42</v>
@@ -8197,13 +8266,13 @@
         <v>43947</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8351,13 @@
         <v>11292</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -8297,13 +8366,13 @@
         <v>11292</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8331,13 +8400,13 @@
         <v>66505</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>59</v>
@@ -8346,13 +8415,13 @@
         <v>66505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8380,13 +8449,13 @@
         <v>105363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -8395,13 +8464,13 @@
         <v>105363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8429,13 +8498,13 @@
         <v>59203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -8444,13 +8513,13 @@
         <v>59203</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8478,13 +8547,13 @@
         <v>45492</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -8493,13 +8562,13 @@
         <v>45492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8578,13 +8647,13 @@
         <v>41674</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -8593,13 +8662,13 @@
         <v>41674</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8627,13 +8696,13 @@
         <v>89200</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -8642,13 +8711,13 @@
         <v>89200</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8676,13 +8745,13 @@
         <v>102333</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M24" s="7">
         <v>93</v>
@@ -8691,13 +8760,13 @@
         <v>102333</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,13 +8794,13 @@
         <v>45915</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -8740,13 +8809,13 @@
         <v>45915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8843,13 @@
         <v>47933</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>46</v>
@@ -8789,13 +8858,13 @@
         <v>47933</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8874,13 +8943,13 @@
         <v>22030</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -8889,13 +8958,13 @@
         <v>22030</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +8992,13 @@
         <v>68015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -8938,13 +9007,13 @@
         <v>68015</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8972,13 +9041,13 @@
         <v>74841</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -8987,13 +9056,13 @@
         <v>74841</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9024,10 +9093,10 @@
         <v>71</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M31" s="7">
         <v>25</v>
@@ -9039,10 +9108,10 @@
         <v>71</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,13 +9139,13 @@
         <v>6877</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -9085,13 +9154,13 @@
         <v>6877</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9239,13 @@
         <v>2710</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -9185,13 +9254,13 @@
         <v>2710</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9219,13 +9288,13 @@
         <v>73677</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M35" s="7">
         <v>66</v>
@@ -9234,13 +9303,13 @@
         <v>73677</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9268,13 +9337,13 @@
         <v>70419</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -9283,13 +9352,13 @@
         <v>70419</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9317,13 +9386,13 @@
         <v>29392</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -9332,13 +9401,13 @@
         <v>29392</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9366,13 +9435,13 @@
         <v>38533</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M38" s="7">
         <v>38</v>
@@ -9381,13 +9450,13 @@
         <v>38533</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9466,13 +9535,13 @@
         <v>84101</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="M40" s="7">
         <v>75</v>
@@ -9481,13 +9550,13 @@
         <v>84101</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,13 +9584,13 @@
         <v>107496</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="M41" s="7">
         <v>96</v>
@@ -9530,13 +9599,13 @@
         <v>107496</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9564,13 +9633,13 @@
         <v>221843</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="M42" s="7">
         <v>210</v>
@@ -9579,13 +9648,13 @@
         <v>221843</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9613,13 +9682,13 @@
         <v>133409</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M43" s="7">
         <v>130</v>
@@ -9628,13 +9697,13 @@
         <v>133409</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,13 +9731,13 @@
         <v>81707</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -9677,13 +9746,13 @@
         <v>81707</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9831,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M46" s="7">
         <v>42</v>
@@ -9777,13 +9846,13 @@
         <v>50704</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9880,13 @@
         <v>178628</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M47" s="7">
         <v>153</v>
@@ -9826,13 +9895,13 @@
         <v>178628</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9929,13 @@
         <v>269722</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="M48" s="7">
         <v>254</v>
@@ -9875,13 +9944,13 @@
         <v>269722</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9912,10 +9981,10 @@
         <v>149</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="M49" s="7">
         <v>135</v>
@@ -9927,10 +9996,10 @@
         <v>149</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9958,13 +10027,13 @@
         <v>90234</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="M50" s="7">
         <v>83</v>
@@ -9973,13 +10042,13 @@
         <v>90234</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,13 +10127,13 @@
         <v>251902</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="M52" s="7">
         <v>225</v>
@@ -10073,13 +10142,13 @@
         <v>251902</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,31 +10173,31 @@
         <v>669</v>
       </c>
       <c r="I53" s="7">
-        <v>745486</v>
+        <v>745487</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="M53" s="7">
         <v>669</v>
       </c>
       <c r="N53" s="7">
-        <v>745486</v>
+        <v>745487</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -10153,31 +10222,31 @@
         <v>1061</v>
       </c>
       <c r="I54" s="7">
-        <v>1106691</v>
+        <v>1106692</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M54" s="7">
         <v>1061</v>
       </c>
       <c r="N54" s="7">
-        <v>1106691</v>
+        <v>1106692</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,31 +10271,31 @@
         <v>545</v>
       </c>
       <c r="I55" s="7">
-        <v>563675</v>
+        <v>563676</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M55" s="7">
         <v>545</v>
       </c>
       <c r="N55" s="7">
-        <v>563675</v>
+        <v>563676</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10251,31 +10320,31 @@
         <v>377</v>
       </c>
       <c r="I56" s="7">
-        <v>393781</v>
+        <v>393782</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="M56" s="7">
         <v>377</v>
       </c>
       <c r="N56" s="7">
-        <v>393781</v>
+        <v>393782</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10300,7 +10369,7 @@
         <v>2877</v>
       </c>
       <c r="I57" s="7">
-        <v>3061536</v>
+        <v>3061537</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>31</v>
@@ -10315,7 +10384,7 @@
         <v>2877</v>
       </c>
       <c r="N57" s="7">
-        <v>3061536</v>
+        <v>3061537</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>31</v>
@@ -10353,7 +10422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FFD73D-FEFF-4062-B21B-0B83B8EBC990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B68D13-2DDF-4D50-A665-E46866EEEB08}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10370,7 +10439,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10487,31 +10556,31 @@
         <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>16554</v>
+        <v>17195</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>16554</v>
+        <v>17195</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -10536,31 +10605,31 @@
         <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>45991</v>
+        <v>47935</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M5" s="7">
         <v>99</v>
       </c>
       <c r="N5" s="7">
-        <v>45991</v>
+        <v>47935</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -10585,31 +10654,31 @@
         <v>107</v>
       </c>
       <c r="I6" s="7">
-        <v>52548</v>
+        <v>55924</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="M6" s="7">
         <v>107</v>
       </c>
       <c r="N6" s="7">
-        <v>52548</v>
+        <v>55924</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -10634,31 +10703,31 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>22034</v>
+        <v>23436</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="M7" s="7">
         <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>22034</v>
+        <v>23436</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10683,31 +10752,31 @@
         <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>28149</v>
+        <v>30036</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>28149</v>
+        <v>30036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10732,7 +10801,7 @@
         <v>336</v>
       </c>
       <c r="I9" s="7">
-        <v>165276</v>
+        <v>174526</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>31</v>
@@ -10747,7 +10816,7 @@
         <v>336</v>
       </c>
       <c r="N9" s="7">
-        <v>165276</v>
+        <v>174526</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>31</v>
@@ -10783,31 +10852,31 @@
         <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>36846</v>
+        <v>34285</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>36846</v>
+        <v>34285</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10832,31 +10901,31 @@
         <v>266</v>
       </c>
       <c r="I11" s="7">
-        <v>187630</v>
+        <v>174105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="M11" s="7">
         <v>266</v>
       </c>
       <c r="N11" s="7">
-        <v>187630</v>
+        <v>174105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10881,31 +10950,31 @@
         <v>105</v>
       </c>
       <c r="I12" s="7">
-        <v>96729</v>
+        <v>90475</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>105</v>
       </c>
       <c r="N12" s="7">
-        <v>96729</v>
+        <v>90475</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10930,31 +10999,31 @@
         <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>38062</v>
+        <v>35326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="M13" s="7">
         <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>38062</v>
+        <v>35326</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10979,31 +11048,31 @@
         <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>33646</v>
+        <v>31300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="M14" s="7">
         <v>44</v>
       </c>
       <c r="N14" s="7">
-        <v>33646</v>
+        <v>31300</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -11028,7 +11097,7 @@
         <v>516</v>
       </c>
       <c r="I15" s="7">
-        <v>392913</v>
+        <v>365490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>31</v>
@@ -11043,7 +11112,7 @@
         <v>516</v>
       </c>
       <c r="N15" s="7">
-        <v>392913</v>
+        <v>365490</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>31</v>
@@ -11079,31 +11148,31 @@
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>20409</v>
+        <v>18998</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
       </c>
       <c r="N16" s="7">
-        <v>20409</v>
+        <v>18998</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11128,31 +11197,31 @@
         <v>137</v>
       </c>
       <c r="I17" s="7">
-        <v>81221</v>
+        <v>75337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="M17" s="7">
         <v>137</v>
       </c>
       <c r="N17" s="7">
-        <v>81221</v>
+        <v>75337</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11177,31 +11246,31 @@
         <v>60</v>
       </c>
       <c r="I18" s="7">
-        <v>39742</v>
+        <v>37224</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
       </c>
       <c r="N18" s="7">
-        <v>39742</v>
+        <v>37224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11226,31 +11295,31 @@
         <v>51</v>
       </c>
       <c r="I19" s="7">
-        <v>32761</v>
+        <v>30624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>32761</v>
+        <v>30624</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>441</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11275,31 +11344,31 @@
         <v>48</v>
       </c>
       <c r="I20" s="7">
-        <v>38801</v>
+        <v>36390</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
       </c>
       <c r="N20" s="7">
-        <v>38801</v>
+        <v>36390</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11324,7 +11393,7 @@
         <v>327</v>
       </c>
       <c r="I21" s="7">
-        <v>212935</v>
+        <v>198573</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>31</v>
@@ -11339,7 +11408,7 @@
         <v>327</v>
       </c>
       <c r="N21" s="7">
-        <v>212935</v>
+        <v>198573</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>31</v>
@@ -11375,31 +11444,31 @@
         <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>28518</v>
+        <v>26619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
       </c>
       <c r="N22" s="7">
-        <v>28518</v>
+        <v>26619</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11424,31 +11493,31 @@
         <v>169</v>
       </c>
       <c r="I23" s="7">
-        <v>120139</v>
+        <v>190794</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>169</v>
       </c>
       <c r="N23" s="7">
-        <v>120139</v>
+        <v>190794</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11473,31 +11542,31 @@
         <v>105</v>
       </c>
       <c r="I24" s="7">
-        <v>73511</v>
+        <v>68045</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="M24" s="7">
         <v>105</v>
       </c>
       <c r="N24" s="7">
-        <v>73511</v>
+        <v>68045</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11522,31 +11591,31 @@
         <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>36371</v>
+        <v>33258</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
       </c>
       <c r="N25" s="7">
-        <v>36371</v>
+        <v>33258</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11571,31 +11640,31 @@
         <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>37248</v>
+        <v>34292</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>51</v>
       </c>
       <c r="N26" s="7">
-        <v>37248</v>
+        <v>34292</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11620,7 +11689,7 @@
         <v>423</v>
       </c>
       <c r="I27" s="7">
-        <v>295787</v>
+        <v>353007</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>31</v>
@@ -11635,7 +11704,7 @@
         <v>423</v>
       </c>
       <c r="N27" s="7">
-        <v>295787</v>
+        <v>353007</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>31</v>
@@ -11671,31 +11740,31 @@
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>2592</v>
+        <v>2355</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
       </c>
       <c r="N28" s="7">
-        <v>2592</v>
+        <v>2355</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11720,31 +11789,31 @@
         <v>112</v>
       </c>
       <c r="I29" s="7">
-        <v>47181</v>
+        <v>42744</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
       </c>
       <c r="N29" s="7">
-        <v>47181</v>
+        <v>42744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11769,31 +11838,31 @@
         <v>121</v>
       </c>
       <c r="I30" s="7">
-        <v>55303</v>
+        <v>50300</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>121</v>
       </c>
       <c r="N30" s="7">
-        <v>55303</v>
+        <v>50300</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11818,31 +11887,31 @@
         <v>66</v>
       </c>
       <c r="I31" s="7">
-        <v>30280</v>
+        <v>27645</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>121</v>
+        <v>468</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="M31" s="7">
         <v>66</v>
       </c>
       <c r="N31" s="7">
-        <v>30280</v>
+        <v>27645</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>121</v>
+        <v>468</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11867,31 +11936,31 @@
         <v>18</v>
       </c>
       <c r="I32" s="7">
-        <v>9491</v>
+        <v>8543</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>9491</v>
+        <v>8543</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11916,7 +11985,7 @@
         <v>324</v>
       </c>
       <c r="I33" s="7">
-        <v>144847</v>
+        <v>131587</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>31</v>
@@ -11931,7 +12000,7 @@
         <v>324</v>
       </c>
       <c r="N33" s="7">
-        <v>144847</v>
+        <v>131587</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>31</v>
@@ -11967,31 +12036,31 @@
         <v>17</v>
       </c>
       <c r="I34" s="7">
-        <v>11672</v>
+        <v>11049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="M34" s="7">
         <v>17</v>
       </c>
       <c r="N34" s="7">
-        <v>11672</v>
+        <v>11049</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12016,31 +12085,31 @@
         <v>121</v>
       </c>
       <c r="I35" s="7">
-        <v>54906</v>
+        <v>51173</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>462</v>
+        <v>177</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="M35" s="7">
         <v>121</v>
       </c>
       <c r="N35" s="7">
-        <v>54906</v>
+        <v>51173</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>462</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12065,31 +12134,31 @@
         <v>59</v>
       </c>
       <c r="I36" s="7">
-        <v>37783</v>
+        <v>35079</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
         <v>59</v>
       </c>
       <c r="N36" s="7">
-        <v>37783</v>
+        <v>35079</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12114,31 +12183,31 @@
         <v>64</v>
       </c>
       <c r="I37" s="7">
-        <v>36690</v>
+        <v>34307</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>44</v>
+        <v>484</v>
       </c>
       <c r="M37" s="7">
         <v>64</v>
       </c>
       <c r="N37" s="7">
-        <v>36690</v>
+        <v>34307</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>44</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12163,31 +12232,31 @@
         <v>27</v>
       </c>
       <c r="I38" s="7">
-        <v>17651</v>
+        <v>16373</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>470</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>27</v>
       </c>
       <c r="N38" s="7">
-        <v>17651</v>
+        <v>16373</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>458</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>470</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12212,7 +12281,7 @@
         <v>288</v>
       </c>
       <c r="I39" s="7">
-        <v>158702</v>
+        <v>147981</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>31</v>
@@ -12227,7 +12296,7 @@
         <v>288</v>
       </c>
       <c r="N39" s="7">
-        <v>158702</v>
+        <v>147981</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>31</v>
@@ -12263,31 +12332,31 @@
         <v>15</v>
       </c>
       <c r="I40" s="7">
-        <v>11435</v>
+        <v>10615</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>473</v>
+        <v>187</v>
       </c>
       <c r="M40" s="7">
         <v>15</v>
       </c>
       <c r="N40" s="7">
-        <v>11435</v>
+        <v>10615</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>473</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12312,31 +12381,31 @@
         <v>162</v>
       </c>
       <c r="I41" s="7">
-        <v>106738</v>
+        <v>97233</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="M41" s="7">
         <v>162</v>
       </c>
       <c r="N41" s="7">
-        <v>106738</v>
+        <v>97233</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12361,31 +12430,31 @@
         <v>154</v>
       </c>
       <c r="I42" s="7">
-        <v>103249</v>
+        <v>96896</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>477</v>
+        <v>246</v>
       </c>
       <c r="M42" s="7">
         <v>154</v>
       </c>
       <c r="N42" s="7">
-        <v>103249</v>
+        <v>96896</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>477</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12410,31 +12479,31 @@
         <v>149</v>
       </c>
       <c r="I43" s="7">
-        <v>111357</v>
+        <v>103915</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>478</v>
+        <v>354</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>301</v>
+        <v>494</v>
       </c>
       <c r="M43" s="7">
         <v>149</v>
       </c>
       <c r="N43" s="7">
-        <v>111357</v>
+        <v>103915</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>478</v>
+        <v>354</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12459,31 +12528,31 @@
         <v>113</v>
       </c>
       <c r="I44" s="7">
-        <v>87775</v>
+        <v>82056</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="M44" s="7">
         <v>113</v>
       </c>
       <c r="N44" s="7">
-        <v>87775</v>
+        <v>82056</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12508,7 +12577,7 @@
         <v>593</v>
       </c>
       <c r="I45" s="7">
-        <v>420554</v>
+        <v>390714</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>31</v>
@@ -12523,7 +12592,7 @@
         <v>593</v>
       </c>
       <c r="N45" s="7">
-        <v>420554</v>
+        <v>390714</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>31</v>
@@ -12559,31 +12628,31 @@
         <v>110</v>
       </c>
       <c r="I46" s="7">
-        <v>84547</v>
+        <v>71177</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="M46" s="7">
         <v>110</v>
       </c>
       <c r="N46" s="7">
-        <v>84547</v>
+        <v>71177</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12608,31 +12677,31 @@
         <v>165</v>
       </c>
       <c r="I47" s="7">
-        <v>114187</v>
+        <v>95482</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>487</v>
+        <v>222</v>
       </c>
       <c r="M47" s="7">
         <v>165</v>
       </c>
       <c r="N47" s="7">
-        <v>114187</v>
+        <v>95482</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>196</v>
+        <v>502</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>487</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -12657,31 +12726,31 @@
         <v>222</v>
       </c>
       <c r="I48" s="7">
-        <v>174353</v>
+        <v>145519</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="M48" s="7">
         <v>222</v>
       </c>
       <c r="N48" s="7">
-        <v>174353</v>
+        <v>145519</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -12706,31 +12775,31 @@
         <v>166</v>
       </c>
       <c r="I49" s="7">
-        <v>132370</v>
+        <v>109861</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>231</v>
+        <v>508</v>
       </c>
       <c r="M49" s="7">
         <v>166</v>
       </c>
       <c r="N49" s="7">
-        <v>132370</v>
+        <v>109861</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>231</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12755,31 +12824,31 @@
         <v>34</v>
       </c>
       <c r="I50" s="7">
-        <v>30707</v>
+        <v>25365</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>157</v>
+        <v>511</v>
       </c>
       <c r="M50" s="7">
         <v>34</v>
       </c>
       <c r="N50" s="7">
-        <v>30707</v>
+        <v>25365</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>157</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12804,7 +12873,7 @@
         <v>697</v>
       </c>
       <c r="I51" s="7">
-        <v>536164</v>
+        <v>447404</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>31</v>
@@ -12819,7 +12888,7 @@
         <v>697</v>
       </c>
       <c r="N51" s="7">
-        <v>536164</v>
+        <v>447404</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>31</v>
@@ -12855,31 +12924,31 @@
         <v>320</v>
       </c>
       <c r="I52" s="7">
-        <v>212574</v>
+        <v>192294</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="M52" s="7">
         <v>320</v>
       </c>
       <c r="N52" s="7">
-        <v>212574</v>
+        <v>192294</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12904,31 +12973,31 @@
         <v>1231</v>
       </c>
       <c r="I53" s="7">
-        <v>757991</v>
+        <v>774802</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="M53" s="7">
         <v>1231</v>
       </c>
       <c r="N53" s="7">
-        <v>757991</v>
+        <v>774802</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>447</v>
+        <v>515</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12953,31 +13022,31 @@
         <v>933</v>
       </c>
       <c r="I54" s="7">
-        <v>633219</v>
+        <v>579463</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>501</v>
+        <v>287</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="M54" s="7">
         <v>933</v>
       </c>
       <c r="N54" s="7">
-        <v>633219</v>
+        <v>579463</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>501</v>
+        <v>287</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -13002,31 +13071,31 @@
         <v>631</v>
       </c>
       <c r="I55" s="7">
-        <v>439924</v>
+        <v>398370</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>503</v>
+        <v>70</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="M55" s="7">
         <v>631</v>
       </c>
       <c r="N55" s="7">
-        <v>439924</v>
+        <v>398370</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>503</v>
+        <v>70</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13051,31 +13120,31 @@
         <v>389</v>
       </c>
       <c r="I56" s="7">
-        <v>283468</v>
+        <v>264354</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>506</v>
+        <v>71</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="M56" s="7">
         <v>389</v>
       </c>
       <c r="N56" s="7">
-        <v>283468</v>
+        <v>264354</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>506</v>
+        <v>71</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13100,7 +13169,7 @@
         <v>3504</v>
       </c>
       <c r="I57" s="7">
-        <v>2327176</v>
+        <v>2209283</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>31</v>
@@ -13115,7 +13184,7 @@
         <v>3504</v>
       </c>
       <c r="N57" s="7">
-        <v>2327176</v>
+        <v>2209283</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>31</v>
